--- a/Output/CreditInfo_27-04-2025.xlsx
+++ b/Output/CreditInfo_27-04-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Documents\UiPath\BilalGuler_ThesisProject\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4197B-890C-40F8-89E9-11ECB8275F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D70C96E-57A7-4089-AEC9-8EB73F835563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78EEF2FB-1D35-4325-A091-8A74C70BEB77}"/>
+    <workbookView xWindow="33120" yWindow="2445" windowWidth="17280" windowHeight="8880" xr2:uid="{179C7252-693A-45D3-85AF-7DC3519A3AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ihtiyac" sheetId="4" r:id="rId1"/>
@@ -660,23 +660,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60273CD-6D9D-4A8B-9F4C-BBFF7EC452CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B14089B-C0A1-4CF0-A564-74CBBCA3242E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -909,23 +909,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB84D48-C2AA-4956-BE0D-7AB82BC7974C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6BE675-7FBA-4636-9681-2892E64B915D}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1350,23 +1350,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA1706A-65B5-4DD0-BE07-2EBEB7225F5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A2AAFC-060E-498F-AFA3-37F91390E1AB}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00A1638-7DA1-4EDF-AD53-AA2A50B1B29D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAC559-D1B9-4B46-AB6B-0B518E1C5CA0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
